--- a/resource/testData/part2.xlsx
+++ b/resource/testData/part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\cSharp\Crab-Excel-Data-App\resource\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D644C32-0AA3-4489-8630-B197E4F0A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDFE857-4FF2-4CF7-AE12-2F69ED2DD8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{052D3BBF-3AE4-4211-8388-46A5DBAFB9C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052D3BBF-3AE4-4211-8388-46A5DBAFB9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Nod</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>Mori</t>
+  </si>
+  <si>
+    <t>Cox</t>
   </si>
 </sst>
 </file>
@@ -557,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95629AD8-A35F-4EE6-8A48-6ABCE163CA8D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,101 +633,129 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -729,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714E0243-AD98-4BD6-A3D4-CD406DF43B5F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/resource/testData/part2.xlsx
+++ b/resource/testData/part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\cSharp\Crab-Excel-Data-App\resource\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDFE857-4FF2-4CF7-AE12-2F69ED2DD8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A51E-B630-49A5-A02E-80DEE9A3B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052D3BBF-3AE4-4211-8388-46A5DBAFB9C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{052D3BBF-3AE4-4211-8388-46A5DBAFB9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Cox</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Bach</t>
   </si>
 </sst>
 </file>
@@ -569,193 +575,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95629AD8-A35F-4EE6-8A48-6ABCE163CA8D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>111</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -767,10 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714E0243-AD98-4BD6-A3D4-CD406DF43B5F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +935,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
